--- a/Ada.Web/upload/douyin.xlsx
+++ b/Ada.Web/upload/douyin.xlsx
@@ -15,14 +15,14 @@
     <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$L$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$N$1</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="43">
   <si>
     <t>归属</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -52,120 +52,114 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>李璇</t>
-  </si>
-  <si>
-    <t>X1712181347380009</t>
-  </si>
-  <si>
-    <t>一禅小和尚</t>
-  </si>
-  <si>
-    <t>拜托啦学妹</t>
-  </si>
-  <si>
-    <t>软软</t>
-  </si>
-  <si>
-    <t>野食小哥</t>
-  </si>
-  <si>
-    <t>爱做饭的芋头SAMA</t>
-  </si>
-  <si>
-    <t>一米便当</t>
-  </si>
-  <si>
-    <t>两米小厨娘</t>
-  </si>
-  <si>
-    <t>十三妹哦</t>
-  </si>
-  <si>
-    <t>私人音乐厅</t>
-  </si>
-  <si>
-    <t>赵金亮ZJL</t>
-  </si>
-  <si>
-    <t>曲肖冰</t>
-  </si>
-  <si>
-    <t>然芭比</t>
-  </si>
-  <si>
-    <t>可馨小姐姐</t>
-  </si>
-  <si>
-    <t>野生脆脆</t>
-  </si>
-  <si>
-    <t>奔波儿灞与灞波儿奔</t>
-  </si>
-  <si>
-    <t>给你的小哥哥</t>
-  </si>
-  <si>
-    <t>穿搭控cherry</t>
-  </si>
-  <si>
-    <t>搭配师阿鹿</t>
-  </si>
-  <si>
-    <t>班主任顾老师</t>
-  </si>
-  <si>
     <t>地区</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>视频时长最长可发布60秒，保留72小时</t>
-  </si>
-  <si>
-    <t>动画漫画</t>
-  </si>
-  <si>
-    <t>视频</t>
-  </si>
-  <si>
-    <t>段子手</t>
-  </si>
-  <si>
-    <t>美食</t>
-  </si>
-  <si>
-    <t>音乐</t>
-  </si>
-  <si>
-    <t>舞蹈</t>
-  </si>
-  <si>
-    <t>游戏</t>
-  </si>
-  <si>
-    <t>女性时尚</t>
-  </si>
-  <si>
-    <t>穿搭</t>
-  </si>
-  <si>
-    <t>X1712181752060109</t>
-  </si>
-  <si>
-    <t>线上活动</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>线下活动</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>直发</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>原创</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>PPT速成</t>
+  </si>
+  <si>
+    <t>PS速成</t>
+  </si>
+  <si>
+    <t>书单收藏馆</t>
+  </si>
+  <si>
+    <t>Excel小技巧</t>
+  </si>
+  <si>
+    <t>生活小妙招</t>
+  </si>
+  <si>
+    <t>手工DIY</t>
+  </si>
+  <si>
+    <t>Ruby二小姐</t>
+  </si>
+  <si>
+    <t>实用百科技巧</t>
+  </si>
+  <si>
+    <t>英语天天说</t>
+  </si>
+  <si>
+    <t>育儿必备知识</t>
+  </si>
+  <si>
+    <t>好书收藏馆</t>
+  </si>
+  <si>
+    <t>轻松学英语</t>
+  </si>
+  <si>
+    <t>word办公技巧</t>
+  </si>
+  <si>
+    <t>彤彤教你拍照</t>
+  </si>
+  <si>
+    <t>Peter快乐学英语</t>
+  </si>
+  <si>
+    <t>小小旅游攻略</t>
+  </si>
+  <si>
+    <t>健人小丘</t>
+  </si>
+  <si>
+    <t>Excel达人</t>
+  </si>
+  <si>
+    <t>Excel不求人</t>
+  </si>
+  <si>
+    <t>职场</t>
+  </si>
+  <si>
+    <t>生活</t>
+  </si>
+  <si>
+    <t>美妆</t>
+  </si>
+  <si>
+    <t>教育</t>
+  </si>
+  <si>
+    <t>母婴</t>
+  </si>
+  <si>
+    <t>旅游</t>
+  </si>
+  <si>
+    <t>体育</t>
+  </si>
+  <si>
+    <t>X1902270950033629</t>
+  </si>
+  <si>
+    <t>原创15S</t>
+  </si>
+  <si>
+    <t>原创30S</t>
+  </si>
+  <si>
+    <t>原创60S</t>
+  </si>
+  <si>
+    <t>星图20S</t>
+  </si>
+  <si>
+    <t>星图60S</t>
+  </si>
+  <si>
+    <t>乐玲</t>
+  </si>
+  <si>
+    <t>X1712181351220014</t>
   </si>
 </sst>
 </file>
@@ -609,10 +603,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L20"/>
+  <dimension ref="A1:N21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
@@ -622,17 +616,19 @@
     <col min="3" max="3" width="9.44140625" style="5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.33203125" style="5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.21875" style="5" customWidth="1"/>
-    <col min="9" max="9" width="36.21875" style="5" customWidth="1"/>
-    <col min="10" max="10" width="25.6640625" style="5" customWidth="1"/>
-    <col min="11" max="11" width="9.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="19.44140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="8.88671875" style="5"/>
+    <col min="6" max="6" width="12.6640625" style="5" customWidth="1"/>
+    <col min="7" max="7" width="9.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.33203125" style="5" customWidth="1"/>
+    <col min="9" max="9" width="12.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.21875" style="5" customWidth="1"/>
+    <col min="11" max="11" width="36.21875" style="5" customWidth="1"/>
+    <col min="12" max="12" width="25.6640625" style="5" customWidth="1"/>
+    <col min="13" max="13" width="9.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="19.44140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="8.88671875" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -640,703 +636,624 @@
         <v>3</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="H1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="N1" s="4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>9</v>
       </c>
       <c r="B2" s="5">
-        <v>76055758243</v>
+        <v>95342596606</v>
       </c>
       <c r="D2" s="5">
-        <v>0</v>
+        <v>9680</v>
       </c>
       <c r="E2" s="5">
-        <v>0</v>
+        <v>9680</v>
       </c>
       <c r="F2" s="5">
-        <v>0</v>
-      </c>
-      <c r="G2" s="5">
-        <v>400000</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>29</v>
+        <v>9680</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="K2" s="5" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+        <v>35</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="5">
-        <v>64304429180</v>
+        <v>80811793859</v>
       </c>
       <c r="D3" s="5">
-        <v>0</v>
+        <v>9500</v>
       </c>
       <c r="E3" s="5">
-        <v>0</v>
+        <v>9500</v>
       </c>
       <c r="F3" s="5">
-        <v>0</v>
-      </c>
-      <c r="G3" s="5">
-        <v>120000</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>29</v>
+        <v>9500</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="K3" s="5" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+        <v>35</v>
+      </c>
+      <c r="M3" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="N3" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>11</v>
       </c>
       <c r="B4" s="5">
-        <v>64974757115</v>
+        <v>94658700174</v>
       </c>
       <c r="D4" s="5">
-        <v>0</v>
+        <v>8490</v>
       </c>
       <c r="E4" s="5">
-        <v>0</v>
+        <v>8490</v>
       </c>
       <c r="F4" s="5">
-        <v>0</v>
-      </c>
-      <c r="G4" s="5">
-        <v>56000</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="I4" s="5" t="s">
-        <v>29</v>
+        <v>8490</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="K4" s="5" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="L4" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+        <v>35</v>
+      </c>
+      <c r="M4" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="N4" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>12</v>
       </c>
       <c r="B5" s="5">
-        <v>64263938561</v>
+        <v>75991801930</v>
       </c>
       <c r="D5" s="5">
-        <v>0</v>
+        <v>8080</v>
       </c>
       <c r="E5" s="5">
-        <v>0</v>
+        <v>8080</v>
       </c>
       <c r="F5" s="5">
-        <v>0</v>
-      </c>
-      <c r="G5" s="5">
-        <v>72000</v>
-      </c>
-      <c r="H5" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="I5" s="5" t="s">
-        <v>29</v>
+        <v>8080</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="K5" s="5" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="L5" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+        <v>35</v>
+      </c>
+      <c r="M5" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="N5" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>13</v>
       </c>
       <c r="B6" s="5">
-        <v>66655962890</v>
+        <v>71771741982</v>
       </c>
       <c r="D6" s="5">
-        <v>0</v>
+        <v>6770</v>
       </c>
       <c r="E6" s="5">
-        <v>0</v>
+        <v>6770</v>
       </c>
       <c r="F6" s="5">
-        <v>0</v>
-      </c>
-      <c r="G6" s="5">
-        <v>60000</v>
-      </c>
-      <c r="H6" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="I6" s="5" t="s">
+        <v>6770</v>
+      </c>
+      <c r="J6" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="J6" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="K6" s="5" t="s">
-        <v>7</v>
-      </c>
       <c r="L6" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+        <v>35</v>
+      </c>
+      <c r="M6" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="N6" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>14</v>
       </c>
       <c r="B7" s="5">
-        <v>87037728296</v>
+        <v>62555180288</v>
       </c>
       <c r="D7" s="5">
-        <v>0</v>
+        <v>6330</v>
       </c>
       <c r="E7" s="5">
-        <v>0</v>
+        <v>6330</v>
       </c>
       <c r="F7" s="5">
-        <v>0</v>
-      </c>
-      <c r="G7" s="5">
-        <v>25600</v>
-      </c>
-      <c r="H7" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="I7" s="5" t="s">
+        <v>6330</v>
+      </c>
+      <c r="J7" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="J7" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="K7" s="5" t="s">
-        <v>7</v>
-      </c>
       <c r="L7" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+        <v>35</v>
+      </c>
+      <c r="M7" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="N7" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>15</v>
       </c>
       <c r="B8" s="5">
-        <v>64314039147</v>
+        <v>98984981941</v>
       </c>
       <c r="D8" s="5">
-        <v>0</v>
+        <v>13200</v>
       </c>
       <c r="E8" s="5">
-        <v>0</v>
+        <v>13200</v>
       </c>
       <c r="F8" s="5">
-        <v>0</v>
-      </c>
-      <c r="G8" s="5">
-        <v>84000</v>
-      </c>
-      <c r="H8" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="I8" s="5" t="s">
-        <v>29</v>
+        <v>13200</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="K8" s="5" t="s">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="L8" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+        <v>35</v>
+      </c>
+      <c r="M8" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="N8" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>16</v>
       </c>
       <c r="B9" s="5">
-        <v>57560468531</v>
+        <v>96173566234</v>
       </c>
       <c r="D9" s="5">
-        <v>0</v>
+        <v>5730</v>
       </c>
       <c r="E9" s="5">
-        <v>0</v>
+        <v>5730</v>
       </c>
       <c r="F9" s="5">
-        <v>0</v>
-      </c>
-      <c r="G9" s="5">
-        <v>28000</v>
-      </c>
-      <c r="H9" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="I9" s="5" t="s">
+        <v>5730</v>
+      </c>
+      <c r="J9" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="J9" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="K9" s="5" t="s">
-        <v>7</v>
-      </c>
       <c r="L9" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+        <v>35</v>
+      </c>
+      <c r="M9" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="N9" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
         <v>17</v>
       </c>
       <c r="B10" s="5">
-        <v>64280555280</v>
+        <v>78781078432</v>
       </c>
       <c r="D10" s="5">
-        <v>0</v>
+        <v>8920</v>
       </c>
       <c r="E10" s="5">
-        <v>0</v>
+        <v>8920</v>
       </c>
       <c r="F10" s="5">
-        <v>0</v>
-      </c>
-      <c r="G10" s="5">
-        <v>12800</v>
-      </c>
-      <c r="H10" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="I10" s="5" t="s">
-        <v>29</v>
+        <v>8920</v>
       </c>
       <c r="J10" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="K10" s="5" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="L10" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+        <v>35</v>
+      </c>
+      <c r="M10" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="N10" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>18</v>
       </c>
       <c r="B11" s="5">
-        <v>76058693307</v>
+        <v>76782087680</v>
       </c>
       <c r="D11" s="5">
-        <v>0</v>
+        <v>24210</v>
       </c>
       <c r="E11" s="5">
-        <v>0</v>
+        <v>24210</v>
       </c>
       <c r="F11" s="5">
-        <v>0</v>
-      </c>
-      <c r="G11" s="5">
-        <v>10400</v>
-      </c>
-      <c r="H11" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="I11" s="5" t="s">
-        <v>29</v>
+        <v>24210</v>
       </c>
       <c r="J11" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="K11" s="5" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="L11" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+        <v>35</v>
+      </c>
+      <c r="M11" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="N11" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>19</v>
       </c>
       <c r="B12" s="5">
-        <v>76054877287</v>
+        <v>78781078432</v>
       </c>
       <c r="D12" s="5">
-        <v>0</v>
+        <v>6170</v>
       </c>
       <c r="E12" s="5">
-        <v>0</v>
+        <v>6170</v>
       </c>
       <c r="F12" s="5">
-        <v>0</v>
-      </c>
-      <c r="G12" s="5">
-        <v>28000</v>
-      </c>
-      <c r="H12" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="I12" s="5" t="s">
-        <v>29</v>
+        <v>6170</v>
       </c>
       <c r="J12" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="K12" s="5" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="L12" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+        <v>35</v>
+      </c>
+      <c r="M12" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="N12" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
         <v>20</v>
       </c>
       <c r="B13" s="5">
-        <v>59603664879</v>
+        <v>73601239911</v>
       </c>
       <c r="D13" s="5">
-        <v>0</v>
+        <v>19110</v>
       </c>
       <c r="E13" s="5">
-        <v>0</v>
+        <v>19110</v>
       </c>
       <c r="F13" s="5">
-        <v>0</v>
-      </c>
-      <c r="G13" s="5">
-        <v>8800</v>
-      </c>
-      <c r="H13" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="I13" s="5" t="s">
+        <v>19110</v>
+      </c>
+      <c r="J13" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="L13" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="M13" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="N13" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A14" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="5">
+        <v>75991801930</v>
+      </c>
+      <c r="D14" s="5">
+        <v>8080</v>
+      </c>
+      <c r="E14" s="5">
+        <v>8080</v>
+      </c>
+      <c r="F14" s="5">
+        <v>8080</v>
+      </c>
+      <c r="J14" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="L14" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="M14" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="N14" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A15" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" s="5">
+        <v>95540983873</v>
+      </c>
+      <c r="D15" s="5">
+        <v>14670</v>
+      </c>
+      <c r="E15" s="5">
+        <v>14670</v>
+      </c>
+      <c r="F15" s="5">
+        <v>14670</v>
+      </c>
+      <c r="J15" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="L15" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="M15" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="N15" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A16" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" s="5">
+        <v>95785662014</v>
+      </c>
+      <c r="D16" s="5">
+        <v>32490</v>
+      </c>
+      <c r="E16" s="5">
+        <v>32490</v>
+      </c>
+      <c r="F16" s="5">
+        <v>32490</v>
+      </c>
+      <c r="J16" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="J13" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="K13" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="L13" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A14" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B14" s="5">
-        <v>58698973504</v>
-      </c>
-      <c r="D14" s="5">
-        <v>0</v>
-      </c>
-      <c r="E14" s="5">
-        <v>0</v>
-      </c>
-      <c r="F14" s="5">
-        <v>0</v>
-      </c>
-      <c r="G14" s="5">
-        <v>7200</v>
-      </c>
-      <c r="H14" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="I14" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="J14" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="K14" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="L14" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A15" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B15" s="5">
-        <v>64801404467</v>
-      </c>
-      <c r="D15" s="5">
-        <v>0</v>
-      </c>
-      <c r="E15" s="5">
-        <v>0</v>
-      </c>
-      <c r="F15" s="5">
-        <v>0</v>
-      </c>
-      <c r="G15" s="5">
-        <v>48000</v>
-      </c>
-      <c r="H15" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="I15" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="J15" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="K15" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="L15" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A16" s="5" t="s">
+      <c r="L16" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="M16" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="N16" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A17" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="5">
-        <v>76065353125</v>
-      </c>
-      <c r="D16" s="5">
-        <v>0</v>
-      </c>
-      <c r="E16" s="5">
-        <v>0</v>
-      </c>
-      <c r="F16" s="5">
-        <v>0</v>
-      </c>
-      <c r="G16" s="5">
-        <v>48000</v>
-      </c>
-      <c r="H16" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="I16" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="J16" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="K16" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="L16" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A17" s="5" t="s">
+      <c r="B17" s="5">
+        <v>73566078769</v>
+      </c>
+      <c r="D17" s="5">
+        <v>32370</v>
+      </c>
+      <c r="E17" s="5">
+        <v>32370</v>
+      </c>
+      <c r="F17" s="5">
+        <v>32370</v>
+      </c>
+      <c r="J17" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="L17" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="M17" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="N17" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A18" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B17" s="5">
-        <v>75964643362</v>
-      </c>
-      <c r="D17" s="5">
-        <v>0</v>
-      </c>
-      <c r="E17" s="5">
-        <v>0</v>
-      </c>
-      <c r="F17" s="5">
-        <v>0</v>
-      </c>
-      <c r="G17" s="5">
-        <v>6960</v>
-      </c>
-      <c r="H17" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="I17" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="J17" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="K17" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="L17" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A18" s="5" t="s">
+      <c r="B18" s="5">
+        <v>74475273866</v>
+      </c>
+      <c r="D18" s="5">
+        <v>72900</v>
+      </c>
+      <c r="E18" s="5">
+        <v>72900</v>
+      </c>
+      <c r="F18" s="5">
+        <v>72900</v>
+      </c>
+      <c r="J18" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="L18" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="M18" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="N18" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A19" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B18" s="5">
-        <v>74897802533</v>
-      </c>
-      <c r="D18" s="5">
-        <v>0</v>
-      </c>
-      <c r="E18" s="5">
-        <v>0</v>
-      </c>
-      <c r="F18" s="5">
-        <v>0</v>
-      </c>
-      <c r="G18" s="5">
-        <v>5280</v>
-      </c>
-      <c r="H18" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="I18" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="J18" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="K18" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="L18" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A19" s="5" t="s">
+      <c r="B19" s="5">
+        <v>76782087680</v>
+      </c>
+      <c r="D19" s="5">
+        <v>30480</v>
+      </c>
+      <c r="E19" s="5">
+        <v>30480</v>
+      </c>
+      <c r="F19" s="5">
+        <v>30480</v>
+      </c>
+      <c r="J19" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="L19" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="M19" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="N19" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A20" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B19" s="5">
-        <v>93704350652</v>
-      </c>
-      <c r="D19" s="5">
-        <v>0</v>
-      </c>
-      <c r="E19" s="5">
-        <v>0</v>
-      </c>
-      <c r="F19" s="5">
-        <v>0</v>
-      </c>
-      <c r="G19" s="5">
-        <v>5280</v>
-      </c>
-      <c r="H19" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="I19" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="J19" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="K19" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="L19" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A20" s="5" t="s">
+      <c r="B20" s="5">
+        <v>75126755196</v>
+      </c>
+      <c r="D20" s="5">
+        <v>16620</v>
+      </c>
+      <c r="E20" s="5">
+        <v>16620</v>
+      </c>
+      <c r="F20" s="5">
+        <v>16620</v>
+      </c>
+      <c r="J20" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="L20" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="M20" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="N20" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A21" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B20" s="5">
-        <v>77680452197</v>
-      </c>
-      <c r="D20" s="5">
-        <v>0</v>
-      </c>
-      <c r="E20" s="5">
-        <v>0</v>
-      </c>
-      <c r="F20" s="5">
-        <v>0</v>
-      </c>
-      <c r="G20" s="5">
-        <v>14400</v>
-      </c>
-      <c r="H20" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="I20" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="J20" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="K20" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="L20" s="5" t="s">
-        <v>8</v>
+      <c r="B21" s="5">
+        <v>89923410837</v>
+      </c>
+      <c r="D21" s="5">
+        <v>17220</v>
+      </c>
+      <c r="E21" s="5">
+        <v>17220</v>
+      </c>
+      <c r="F21" s="5">
+        <v>17220</v>
+      </c>
+      <c r="J21" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="L21" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="M21" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="N21" s="5" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:L1"/>
+  <autoFilter ref="A1:N1"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Ada.Web/upload/douyin.xlsx
+++ b/Ada.Web/upload/douyin.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="91">
   <si>
     <t>归属</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -60,15 +60,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>PPT速成</t>
-  </si>
-  <si>
-    <t>职场</t>
-  </si>
-  <si>
-    <t>X1902270950033629</t>
-  </si>
-  <si>
     <t>原创15S</t>
   </si>
   <si>
@@ -84,10 +75,235 @@
     <t>星图60S</t>
   </si>
   <si>
-    <t>乐玲</t>
-  </si>
-  <si>
-    <t>X1712181351220014</t>
+    <t>耿直王铁蛋</t>
+  </si>
+  <si>
+    <t>段子手</t>
+  </si>
+  <si>
+    <t>看项目给折扣。有商品橱窗</t>
+  </si>
+  <si>
+    <t>X1903140920342271</t>
+  </si>
+  <si>
+    <t>吴璇</t>
+  </si>
+  <si>
+    <t>连发儿</t>
+  </si>
+  <si>
+    <t>美妆，幽默搞笑</t>
+  </si>
+  <si>
+    <t>情感回收站</t>
+  </si>
+  <si>
+    <t>北京</t>
+  </si>
+  <si>
+    <t>情感，解说，生活</t>
+  </si>
+  <si>
+    <t>车圈007</t>
+  </si>
+  <si>
+    <t>103443338351</t>
+  </si>
+  <si>
+    <t>汽车</t>
+  </si>
+  <si>
+    <t>车圈小迷妹</t>
+  </si>
+  <si>
+    <t>104682299683</t>
+  </si>
+  <si>
+    <t>爱画画的大小姐</t>
+  </si>
+  <si>
+    <t>101782063214</t>
+  </si>
+  <si>
+    <t>动漫漫画</t>
+  </si>
+  <si>
+    <t>谝侃太原</t>
+  </si>
+  <si>
+    <t>生活，解说</t>
+  </si>
+  <si>
+    <t>话唠邢捕头</t>
+  </si>
+  <si>
+    <t>100487222584</t>
+  </si>
+  <si>
+    <t>文学文化</t>
+  </si>
+  <si>
+    <t>太原美食侦探</t>
+  </si>
+  <si>
+    <t>美食</t>
+  </si>
+  <si>
+    <t>宠派</t>
+  </si>
+  <si>
+    <t>狗狗是天使</t>
+  </si>
+  <si>
+    <t>上海</t>
+  </si>
+  <si>
+    <t>宠物</t>
+  </si>
+  <si>
+    <t>陈小醋</t>
+  </si>
+  <si>
+    <t>种草的铃铛酱</t>
+  </si>
+  <si>
+    <t>生活，美妆</t>
+  </si>
+  <si>
+    <t>小白白的好物口袋</t>
+  </si>
+  <si>
+    <t>102234736440</t>
+  </si>
+  <si>
+    <t>美妆</t>
+  </si>
+  <si>
+    <t>爱美的豆芽妹</t>
+  </si>
+  <si>
+    <t>102269017585</t>
+  </si>
+  <si>
+    <t>测评主管姚翠花</t>
+  </si>
+  <si>
+    <t>105489420266</t>
+  </si>
+  <si>
+    <t>拜托了查查</t>
+  </si>
+  <si>
+    <t>101861138014</t>
+  </si>
+  <si>
+    <t>美妆，解说</t>
+  </si>
+  <si>
+    <t>X1903211154103759</t>
+  </si>
+  <si>
+    <t>神奇宛宛</t>
+  </si>
+  <si>
+    <t>109766822261</t>
+  </si>
+  <si>
+    <t>美妆，解说，穿撘</t>
+  </si>
+  <si>
+    <t>长沙吃货郭子墨</t>
+  </si>
+  <si>
+    <t>104248514938</t>
+  </si>
+  <si>
+    <t>橙子喵mini</t>
+  </si>
+  <si>
+    <t>106528360816</t>
+  </si>
+  <si>
+    <t>影视，美妆，美食，解说，生活</t>
+  </si>
+  <si>
+    <t>桃桃爱吃桃</t>
+  </si>
+  <si>
+    <t>106866259062</t>
+  </si>
+  <si>
+    <t>穿撘，美妆，解说</t>
+  </si>
+  <si>
+    <t>爱摇摆的豆浆</t>
+  </si>
+  <si>
+    <t>104850604469</t>
+  </si>
+  <si>
+    <t>范范范留艺</t>
+  </si>
+  <si>
+    <t>107921557058</t>
+  </si>
+  <si>
+    <t>穿撘，美妆，解说，美食</t>
+  </si>
+  <si>
+    <t>七妮小姐姐</t>
+  </si>
+  <si>
+    <t>108370716232</t>
+  </si>
+  <si>
+    <t>麻花可可</t>
+  </si>
+  <si>
+    <t>105945146047</t>
+  </si>
+  <si>
+    <t>🐰Ma可可</t>
+  </si>
+  <si>
+    <t>101831321551</t>
+  </si>
+  <si>
+    <t>美妆，穿撘，生活，解说</t>
+  </si>
+  <si>
+    <t>王哈哈HaHa</t>
+  </si>
+  <si>
+    <t>美妆，影视，穿撘，生活，美食，解说</t>
+  </si>
+  <si>
+    <t>董咚咚会闪光✨</t>
+  </si>
+  <si>
+    <t>104220297480</t>
+  </si>
+  <si>
+    <t>美妆，穿撘，健身，美食，解说</t>
+  </si>
+  <si>
+    <t>陈小绿</t>
+  </si>
+  <si>
+    <t>X1801180851430024</t>
+  </si>
+  <si>
+    <t>吉林长春</t>
+  </si>
+  <si>
+    <t>山西太原</t>
+  </si>
+  <si>
+    <t>广东广州</t>
+  </si>
+  <si>
+    <t>湖南长沙</t>
   </si>
 </sst>
 </file>
@@ -531,10 +747,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N2"/>
+  <dimension ref="A1:N30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
@@ -567,22 +783,22 @@
         <v>7</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>4</v>
@@ -602,31 +818,1128 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B2" s="5">
-        <v>95342596606</v>
+        <v>76826699481</v>
       </c>
       <c r="D2" s="5">
-        <v>9680</v>
+        <v>0</v>
       </c>
       <c r="E2" s="5">
-        <v>9680</v>
+        <v>0</v>
       </c>
       <c r="F2" s="5">
-        <v>9680</v>
+        <v>0</v>
+      </c>
+      <c r="H2" s="5">
+        <v>10500</v>
+      </c>
+      <c r="I2" s="5">
+        <v>15750</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>10</v>
+        <v>15</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>16</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="M2" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="5">
+        <v>61780391745</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="D3" s="5">
+        <v>4000</v>
+      </c>
+      <c r="E3" s="5">
+        <v>0</v>
+      </c>
+      <c r="F3" s="5">
+        <v>6000</v>
+      </c>
+      <c r="H3" s="5">
+        <v>0</v>
+      </c>
+      <c r="I3" s="5">
+        <v>0</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="L3" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="N2" s="5" t="s">
-        <v>18</v>
+      <c r="M3" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="N3" s="5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A4" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="5">
+        <v>97425738292</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="5">
+        <v>0</v>
+      </c>
+      <c r="E4" s="5">
+        <v>0</v>
+      </c>
+      <c r="F4" s="5">
+        <v>0</v>
+      </c>
+      <c r="H4" s="5">
+        <v>5775</v>
+      </c>
+      <c r="I4" s="5">
+        <v>8663</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="L4" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="M4" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="N4" s="5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A5" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="D5" s="5">
+        <v>0</v>
+      </c>
+      <c r="E5" s="5">
+        <v>0</v>
+      </c>
+      <c r="F5" s="5">
+        <v>0</v>
+      </c>
+      <c r="H5" s="5">
+        <v>7350</v>
+      </c>
+      <c r="I5" s="5">
+        <v>11025</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="K5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="L5" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="M5" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="N5" s="5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A6" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="D6" s="5">
+        <v>3000</v>
+      </c>
+      <c r="E6" s="5">
+        <v>0</v>
+      </c>
+      <c r="F6" s="5">
+        <v>4000</v>
+      </c>
+      <c r="H6" s="5">
+        <v>0</v>
+      </c>
+      <c r="I6" s="5">
+        <v>0</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="K6" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="L6" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="M6" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="N6" s="5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A7" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="5">
+        <v>0</v>
+      </c>
+      <c r="E7" s="5">
+        <v>0</v>
+      </c>
+      <c r="F7" s="5">
+        <v>0</v>
+      </c>
+      <c r="H7" s="5">
+        <v>6300</v>
+      </c>
+      <c r="I7" s="5">
+        <v>9450</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="K7" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="L7" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="M7" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="N7" s="5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A8" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" s="5">
+        <v>93523012005</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="D8" s="5">
+        <v>3000</v>
+      </c>
+      <c r="E8" s="5">
+        <v>0</v>
+      </c>
+      <c r="F8" s="5">
+        <v>0</v>
+      </c>
+      <c r="H8" s="5">
+        <v>0</v>
+      </c>
+      <c r="I8" s="5">
+        <v>0</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="K8" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="L8" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="M8" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="N8" s="5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A9" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="D9" s="5">
+        <v>0</v>
+      </c>
+      <c r="E9" s="5">
+        <v>0</v>
+      </c>
+      <c r="F9" s="5">
+        <v>0</v>
+      </c>
+      <c r="H9" s="5">
+        <v>7350</v>
+      </c>
+      <c r="I9" s="5">
+        <v>11025</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="K9" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="L9" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="M9" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="N9" s="5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A10" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10" s="5">
+        <v>98878140391</v>
+      </c>
+      <c r="D10" s="5">
+        <v>3500</v>
+      </c>
+      <c r="E10" s="5">
+        <v>0</v>
+      </c>
+      <c r="F10" s="5">
+        <v>5500</v>
+      </c>
+      <c r="H10" s="5">
+        <v>0</v>
+      </c>
+      <c r="I10" s="5">
+        <v>0</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="K10" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="L10" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="M10" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="N10" s="5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A11" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11" s="5">
+        <v>78926033402</v>
+      </c>
+      <c r="D11" s="5">
+        <v>10000</v>
+      </c>
+      <c r="E11" s="5">
+        <v>0</v>
+      </c>
+      <c r="F11" s="5">
+        <v>15000</v>
+      </c>
+      <c r="H11" s="5">
+        <v>0</v>
+      </c>
+      <c r="I11" s="5">
+        <v>0</v>
+      </c>
+      <c r="J11" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="K11" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="L11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="M11" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="N11" s="5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A12" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B12" s="5">
+        <v>98871093197</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D12" s="5">
+        <v>0</v>
+      </c>
+      <c r="E12" s="5">
+        <v>0</v>
+      </c>
+      <c r="F12" s="5">
+        <v>0</v>
+      </c>
+      <c r="H12" s="5">
+        <v>4410</v>
+      </c>
+      <c r="I12" s="5">
+        <v>6615</v>
+      </c>
+      <c r="J12" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="K12" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="L12" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="M12" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="N12" s="5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A13" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B13" s="5">
+        <v>51050675808</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="D13" s="5">
+        <v>0</v>
+      </c>
+      <c r="E13" s="5">
+        <v>0</v>
+      </c>
+      <c r="F13" s="5">
+        <v>0</v>
+      </c>
+      <c r="H13" s="5">
+        <v>3150</v>
+      </c>
+      <c r="I13" s="5">
+        <v>4725</v>
+      </c>
+      <c r="J13" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="K13" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="L13" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="M13" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="N13" s="5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A14" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B14" s="5">
+        <v>98869925710</v>
+      </c>
+      <c r="D14" s="5">
+        <v>0</v>
+      </c>
+      <c r="E14" s="5">
+        <v>0</v>
+      </c>
+      <c r="F14" s="5">
+        <v>0</v>
+      </c>
+      <c r="H14" s="5">
+        <v>4200</v>
+      </c>
+      <c r="I14" s="5">
+        <v>7350</v>
+      </c>
+      <c r="J14" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="K14" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="L14" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="M14" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="N14" s="5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A15" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D15" s="5">
+        <v>0</v>
+      </c>
+      <c r="E15" s="5">
+        <v>0</v>
+      </c>
+      <c r="F15" s="5">
+        <v>0</v>
+      </c>
+      <c r="H15" s="5">
+        <v>10500</v>
+      </c>
+      <c r="I15" s="5">
+        <v>15750</v>
+      </c>
+      <c r="J15" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="K15" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="L15" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="M15" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="N15" s="5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A16" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D16" s="5">
+        <v>0</v>
+      </c>
+      <c r="E16" s="5">
+        <v>0</v>
+      </c>
+      <c r="F16" s="5">
+        <v>0</v>
+      </c>
+      <c r="H16" s="5">
+        <v>12600</v>
+      </c>
+      <c r="I16" s="5">
+        <v>16800</v>
+      </c>
+      <c r="J16" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="K16" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="L16" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="M16" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="N16" s="5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A17" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="D17" s="5">
+        <v>8000</v>
+      </c>
+      <c r="E17" s="5">
+        <v>0</v>
+      </c>
+      <c r="F17" s="5">
+        <v>12000</v>
+      </c>
+      <c r="H17" s="5">
+        <v>0</v>
+      </c>
+      <c r="I17" s="5">
+        <v>0</v>
+      </c>
+      <c r="J17" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="K17" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="L17" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="M17" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="N17" s="5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A18" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="D18" s="5">
+        <v>0</v>
+      </c>
+      <c r="E18" s="5">
+        <v>0</v>
+      </c>
+      <c r="F18" s="5">
+        <v>0</v>
+      </c>
+      <c r="H18" s="5">
+        <v>25200</v>
+      </c>
+      <c r="I18" s="5">
+        <v>37800</v>
+      </c>
+      <c r="J18" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="L18" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="M18" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="N18" s="5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A19" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="D19" s="5">
+        <v>0</v>
+      </c>
+      <c r="E19" s="5">
+        <v>0</v>
+      </c>
+      <c r="F19" s="5">
+        <v>0</v>
+      </c>
+      <c r="H19" s="5">
+        <v>14700</v>
+      </c>
+      <c r="I19" s="5">
+        <v>20790</v>
+      </c>
+      <c r="J19" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="L19" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="M19" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="N19" s="5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A20" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="D20" s="5">
+        <v>0</v>
+      </c>
+      <c r="E20" s="5">
+        <v>0</v>
+      </c>
+      <c r="F20" s="5">
+        <v>0</v>
+      </c>
+      <c r="H20" s="5">
+        <v>12600</v>
+      </c>
+      <c r="I20" s="5">
+        <v>18900</v>
+      </c>
+      <c r="J20" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="L20" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="M20" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="N20" s="5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A21" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="D21" s="5">
+        <v>0</v>
+      </c>
+      <c r="E21" s="5">
+        <v>0</v>
+      </c>
+      <c r="F21" s="5">
+        <v>0</v>
+      </c>
+      <c r="H21" s="5">
+        <v>3780</v>
+      </c>
+      <c r="I21" s="5">
+        <v>5628</v>
+      </c>
+      <c r="J21" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="L21" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="M21" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="N21" s="5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A22" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="D22" s="5">
+        <v>0</v>
+      </c>
+      <c r="E22" s="5">
+        <v>0</v>
+      </c>
+      <c r="F22" s="5">
+        <v>0</v>
+      </c>
+      <c r="H22" s="5">
+        <v>10500</v>
+      </c>
+      <c r="I22" s="5">
+        <v>15750</v>
+      </c>
+      <c r="J22" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="L22" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="M22" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="N22" s="5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A23" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="D23" s="5">
+        <v>0</v>
+      </c>
+      <c r="E23" s="5">
+        <v>0</v>
+      </c>
+      <c r="F23" s="5">
+        <v>0</v>
+      </c>
+      <c r="H23" s="5">
+        <v>21000</v>
+      </c>
+      <c r="I23" s="5">
+        <v>29400</v>
+      </c>
+      <c r="J23" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="L23" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="M23" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="N23" s="5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A24" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="D24" s="5">
+        <v>0</v>
+      </c>
+      <c r="E24" s="5">
+        <v>0</v>
+      </c>
+      <c r="F24" s="5">
+        <v>0</v>
+      </c>
+      <c r="H24" s="5">
+        <v>6825</v>
+      </c>
+      <c r="I24" s="5">
+        <v>10080</v>
+      </c>
+      <c r="J24" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="L24" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="M24" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="N24" s="5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A25" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="D25" s="5">
+        <v>0</v>
+      </c>
+      <c r="E25" s="5">
+        <v>0</v>
+      </c>
+      <c r="F25" s="5">
+        <v>0</v>
+      </c>
+      <c r="H25" s="5">
+        <v>14700</v>
+      </c>
+      <c r="I25" s="5">
+        <v>21000</v>
+      </c>
+      <c r="J25" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="L25" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="M25" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="N25" s="5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A26" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="D26" s="5">
+        <v>0</v>
+      </c>
+      <c r="E26" s="5">
+        <v>0</v>
+      </c>
+      <c r="F26" s="5">
+        <v>0</v>
+      </c>
+      <c r="H26" s="5">
+        <v>12600</v>
+      </c>
+      <c r="I26" s="5">
+        <v>18900</v>
+      </c>
+      <c r="J26" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="L26" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="M26" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="N26" s="5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A27" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="D27" s="5">
+        <v>0</v>
+      </c>
+      <c r="E27" s="5">
+        <v>0</v>
+      </c>
+      <c r="F27" s="5">
+        <v>0</v>
+      </c>
+      <c r="H27" s="5">
+        <v>5775</v>
+      </c>
+      <c r="I27" s="5">
+        <v>8400</v>
+      </c>
+      <c r="J27" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="L27" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="M27" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="N27" s="5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A28" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="B28" s="5">
+        <v>96791605511</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="D28" s="5">
+        <v>0</v>
+      </c>
+      <c r="E28" s="5">
+        <v>0</v>
+      </c>
+      <c r="F28" s="5">
+        <v>0</v>
+      </c>
+      <c r="H28" s="5">
+        <v>23100</v>
+      </c>
+      <c r="I28" s="5">
+        <v>34230</v>
+      </c>
+      <c r="J28" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="L28" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="M28" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="N28" s="5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A29" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="D29" s="5">
+        <v>0</v>
+      </c>
+      <c r="E29" s="5">
+        <v>0</v>
+      </c>
+      <c r="F29" s="5">
+        <v>0</v>
+      </c>
+      <c r="H29" s="5">
+        <v>21000</v>
+      </c>
+      <c r="I29" s="5">
+        <v>31500</v>
+      </c>
+      <c r="J29" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="L29" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="M29" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="N29" s="5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A30" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="B30" s="5">
+        <v>64542961531</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="D30" s="5">
+        <v>0</v>
+      </c>
+      <c r="E30" s="5">
+        <v>0</v>
+      </c>
+      <c r="F30" s="5">
+        <v>0</v>
+      </c>
+      <c r="H30" s="5">
+        <v>27300</v>
+      </c>
+      <c r="I30" s="5">
+        <v>39900</v>
+      </c>
+      <c r="J30" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="L30" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="M30" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="N30" s="5" t="s">
+        <v>86</v>
       </c>
     </row>
   </sheetData>

--- a/Ada.Web/upload/douyin.xlsx
+++ b/Ada.Web/upload/douyin.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="144">
   <si>
     <t>名称</t>
   </si>
@@ -64,112 +64,397 @@
   </si>
   <si>
     <t>归属2</t>
-  </si>
-  <si>
-    <t>美妆</t>
   </si>
   <si>
     <t>购物车价格</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>买买菌</t>
+    <t>江丽芬</t>
+  </si>
+  <si>
+    <t>X1810300942145178</t>
+  </si>
+  <si>
+    <t>报告老师</t>
+  </si>
+  <si>
+    <t>106273644798</t>
   </si>
   <si>
     <t>北京</t>
   </si>
   <si>
-    <t>白三娘</t>
-  </si>
-  <si>
-    <t>成都</t>
-  </si>
-  <si>
-    <t>一粒儿_RiRi</t>
-  </si>
-  <si>
-    <t>北京朝阳</t>
-  </si>
-  <si>
-    <t>胖栗呐</t>
-  </si>
-  <si>
-    <t>老板我要孜然味</t>
+    <t>大玩家TT</t>
+  </si>
+  <si>
+    <t>广州</t>
+  </si>
+  <si>
+    <t>隔壁小月吖</t>
+  </si>
+  <si>
+    <t>冰少热游解说</t>
+  </si>
+  <si>
+    <t>河南</t>
+  </si>
+  <si>
+    <t>游戏不荒</t>
+  </si>
+  <si>
+    <t>104776348048</t>
+  </si>
+  <si>
+    <t>彭十三</t>
+  </si>
+  <si>
+    <t>韩哈哈主机游戏直播</t>
+  </si>
+  <si>
+    <t>河北</t>
+  </si>
+  <si>
+    <t>一只小夜琴</t>
+  </si>
+  <si>
+    <t>湖北</t>
+  </si>
+  <si>
+    <t>电竞张教练</t>
+  </si>
+  <si>
+    <t>江西</t>
+  </si>
+  <si>
+    <t>迷你世界⭐炫星</t>
+  </si>
+  <si>
+    <t>小雯游戏说</t>
+  </si>
+  <si>
+    <t>老王说游</t>
+  </si>
+  <si>
+    <t>飞车手游骚帅（贼帅）</t>
+  </si>
+  <si>
+    <t>110169982204</t>
+  </si>
+  <si>
+    <t>常熟</t>
+  </si>
+  <si>
+    <t>KAKA解说</t>
+  </si>
+  <si>
+    <t>A苏柯</t>
+  </si>
+  <si>
+    <t>哈尔滨</t>
+  </si>
+  <si>
+    <t>QQ飞车晓枫</t>
+  </si>
+  <si>
+    <t>山东</t>
+  </si>
+  <si>
+    <t>笙箫戏游</t>
+  </si>
+  <si>
+    <t>钦州</t>
+  </si>
+  <si>
+    <t>雪喵~</t>
+  </si>
+  <si>
+    <t>船长（主机游戏）</t>
+  </si>
+  <si>
+    <t>106768825646</t>
+  </si>
+  <si>
+    <t>千年</t>
+  </si>
+  <si>
+    <t>110252070041</t>
+  </si>
+  <si>
+    <t>西安市</t>
+  </si>
+  <si>
+    <t>教官超哥什么都无敌</t>
+  </si>
+  <si>
+    <t>110918304862</t>
+  </si>
+  <si>
+    <t>王灏</t>
+  </si>
+  <si>
+    <t>102651393796</t>
+  </si>
+  <si>
+    <t>卢西最优秀</t>
+  </si>
+  <si>
+    <t>李老师和姚老师的秘密花园</t>
+  </si>
+  <si>
+    <t>江苏</t>
+  </si>
+  <si>
+    <t>韦小宝</t>
+  </si>
+  <si>
+    <t>坤坤（游戏达人）</t>
+  </si>
+  <si>
+    <t>100420846641</t>
+  </si>
+  <si>
+    <t>达州</t>
+  </si>
+  <si>
+    <t>叶风小哥哥</t>
+  </si>
+  <si>
+    <t>106282689237</t>
+  </si>
+  <si>
+    <t>河源</t>
+  </si>
+  <si>
+    <t>刺激战场伊人醉</t>
+  </si>
+  <si>
+    <t>徐州</t>
+  </si>
+  <si>
+    <t>凤舞🔥（游戏解说）</t>
+  </si>
+  <si>
+    <t>100121374840</t>
+  </si>
+  <si>
+    <t>温州</t>
+  </si>
+  <si>
+    <t>千秋</t>
+  </si>
+  <si>
+    <t>108253612801</t>
   </si>
   <si>
     <t>重庆</t>
   </si>
   <si>
-    <t>琳大linlin</t>
-  </si>
-  <si>
-    <t>长草颜团子</t>
-  </si>
-  <si>
-    <t>虽虽酱</t>
-  </si>
-  <si>
-    <t>给喵一个哥</t>
-  </si>
-  <si>
-    <t>100205163282</t>
-  </si>
-  <si>
-    <t>小菊花~</t>
-  </si>
-  <si>
-    <t>小熊奶黄包</t>
-  </si>
-  <si>
-    <t>浙江杭州</t>
-  </si>
-  <si>
-    <t>奋斗吧熊卷</t>
-  </si>
-  <si>
-    <t>Gon的旱獭</t>
-  </si>
-  <si>
-    <t>破耳兔</t>
-  </si>
-  <si>
-    <t>制冷少女</t>
-  </si>
-  <si>
-    <t>芮小凹凸</t>
-  </si>
-  <si>
-    <t>美妆种草类</t>
-  </si>
-  <si>
-    <t>X1904041803280709</t>
-  </si>
-  <si>
-    <t>欧阳鹏燕</t>
-  </si>
-  <si>
-    <t>带橱窗</t>
-  </si>
-  <si>
-    <t>漫画</t>
-  </si>
-  <si>
-    <t>特效师</t>
-  </si>
-  <si>
-    <t>带橱窗，测评,种草类</t>
-  </si>
-  <si>
-    <t>美妆,时尚</t>
-  </si>
-  <si>
-    <t>生活,漫画</t>
-  </si>
-  <si>
-    <t>漫画,搞笑</t>
-  </si>
-  <si>
-    <t>X1808101526344279</t>
+    <t>凤年（游戏解说）</t>
+  </si>
+  <si>
+    <t>绝地求生✔六点半</t>
+  </si>
+  <si>
+    <t>101561493471</t>
+  </si>
+  <si>
+    <t>淮北</t>
+  </si>
+  <si>
+    <t>可水什么都不懂</t>
+  </si>
+  <si>
+    <t>荷子（和平精英）</t>
+  </si>
+  <si>
+    <t>104588011361</t>
+  </si>
+  <si>
+    <t>十年</t>
+  </si>
+  <si>
+    <t>无锡</t>
+  </si>
+  <si>
+    <t>电竞丶浩言</t>
+  </si>
+  <si>
+    <t>广西</t>
+  </si>
+  <si>
+    <t>110295138388</t>
+  </si>
+  <si>
+    <t>大林 半知名游戏主播</t>
+  </si>
+  <si>
+    <t>102908542126</t>
+  </si>
+  <si>
+    <t>飞车手游、逸凡（搞笑语录）</t>
+  </si>
+  <si>
+    <t>恋上浪文</t>
+  </si>
+  <si>
+    <t>108672269591</t>
+  </si>
+  <si>
+    <t>驻马店</t>
+  </si>
+  <si>
+    <t>刺激战场小兵(露手直播)</t>
+  </si>
+  <si>
+    <t>广东</t>
+  </si>
+  <si>
+    <t>走位哥·和平精英</t>
+  </si>
+  <si>
+    <t>珠海</t>
+  </si>
+  <si>
+    <t>和平精英小六</t>
+  </si>
+  <si>
+    <t>106457374554</t>
+  </si>
+  <si>
+    <t>102297373420</t>
+  </si>
+  <si>
+    <t>湛江</t>
+  </si>
+  <si>
+    <t>浪神</t>
+  </si>
+  <si>
+    <t>上海</t>
+  </si>
+  <si>
+    <t>最帅阿杰ye</t>
+  </si>
+  <si>
+    <t>王二胖</t>
+  </si>
+  <si>
+    <t>内蒙古</t>
+  </si>
+  <si>
+    <t>小骚巷刺激战场</t>
+  </si>
+  <si>
+    <t>浙江</t>
+  </si>
+  <si>
+    <t>刺激战场阿维</t>
+  </si>
+  <si>
+    <t>战神醉眼（每晚8点直播）</t>
+  </si>
+  <si>
+    <t>108107510931</t>
+  </si>
+  <si>
+    <t>长沙</t>
+  </si>
+  <si>
+    <t>盒子君（和平精英）</t>
+  </si>
+  <si>
+    <t>三亚</t>
+  </si>
+  <si>
+    <t>平头哥解说</t>
+  </si>
+  <si>
+    <t>101483461570</t>
+  </si>
+  <si>
+    <t>安徽</t>
+  </si>
+  <si>
+    <t>陈天赐_和平精英（天）</t>
+  </si>
+  <si>
+    <t>107990341934</t>
+  </si>
+  <si>
+    <t>花季</t>
+  </si>
+  <si>
+    <t>4085407189579276</t>
+  </si>
+  <si>
+    <t>四川</t>
+  </si>
+  <si>
+    <t>玉面苏</t>
+  </si>
+  <si>
+    <t>福州</t>
+  </si>
+  <si>
+    <t>余生学长</t>
+  </si>
+  <si>
+    <t>忘忧（游戏解说）</t>
+  </si>
+  <si>
+    <t>贵州</t>
+  </si>
+  <si>
+    <t>游戏</t>
+  </si>
+  <si>
+    <t>综合游戏</t>
+  </si>
+  <si>
+    <t>X1812061539043977</t>
+  </si>
+  <si>
+    <t>QQ飞车</t>
+  </si>
+  <si>
+    <t>明日之后</t>
+  </si>
+  <si>
+    <t>穿越火线</t>
+  </si>
+  <si>
+    <t>第五人格</t>
+  </si>
+  <si>
+    <t>主机游戏</t>
+  </si>
+  <si>
+    <t>和平精英</t>
+  </si>
+  <si>
+    <t>刺激战场</t>
+  </si>
+  <si>
+    <t>夏天和平精英</t>
+  </si>
+  <si>
+    <t>养猪场刺激战场</t>
+  </si>
+  <si>
+    <t>和平精英苍白</t>
+  </si>
+  <si>
+    <t>周七游戏解说</t>
+  </si>
+  <si>
+    <t>念辞刺激战场</t>
+  </si>
+  <si>
+    <t>小豆Nice</t>
+  </si>
+  <si>
+    <t>杀鸡✨带粉小霸王</t>
   </si>
 </sst>
 </file>
@@ -187,6 +472,7 @@
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -194,12 +480,14 @@
       <sz val="9"/>
       <color theme="0"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -212,12 +500,14 @@
     <font>
       <sz val="12"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -619,10 +909,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O17"/>
+  <dimension ref="A1:O63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O14" sqref="O14"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
@@ -671,7 +961,7 @@
         <v>8</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K1" s="3" t="s">
         <v>9</v>
@@ -691,13 +981,13 @@
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B2" s="1">
-        <v>92382613282</v>
+        <v>17</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D2" s="1">
         <v>0</v>
@@ -706,42 +996,42 @@
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="G2" s="1">
         <v>0</v>
       </c>
       <c r="H2" s="1">
-        <v>0</v>
+        <v>21000</v>
       </c>
       <c r="I2" s="1">
-        <v>0</v>
+        <v>31500</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>14</v>
+        <v>127</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>38</v>
+        <v>128</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>39</v>
+        <v>129</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>48</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B3" s="1">
-        <v>99182393376</v>
+        <v>99732882162</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D3" s="1">
         <v>0</v>
@@ -756,112 +1046,118 @@
         <v>0</v>
       </c>
       <c r="H3" s="1">
-        <v>2100</v>
+        <v>7560</v>
       </c>
       <c r="I3" s="1">
-        <v>2625</v>
+        <v>9450</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>14</v>
+        <v>127</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>44</v>
+        <v>128</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>39</v>
+        <v>129</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>48</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B4" s="1">
-        <v>66649966092</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>21</v>
+        <v>73816814775</v>
       </c>
       <c r="D4" s="1">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="E4" s="1">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="G4" s="1">
         <v>0</v>
       </c>
       <c r="H4" s="1">
-        <v>1050</v>
+        <v>3360</v>
       </c>
       <c r="I4" s="1">
-        <v>3150</v>
+        <v>4200</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>45</v>
+        <v>127</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>41</v>
+        <v>128</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>39</v>
+        <v>129</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>48</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B5" s="1">
-        <v>99689092512</v>
+        <v>93178179857</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="D5" s="1">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="E5" s="1">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="F5" s="1">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="G5" s="1">
         <v>0</v>
       </c>
+      <c r="H5" s="1">
+        <v>7122.15</v>
+      </c>
+      <c r="I5" s="1">
+        <v>8400</v>
+      </c>
       <c r="K5" s="1" t="s">
-        <v>45</v>
+        <v>127</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>128</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>39</v>
+        <v>129</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>48</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B6" s="1">
-        <v>60470247911</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="D6" s="1">
         <v>0</v>
@@ -876,71 +1172,77 @@
         <v>0</v>
       </c>
       <c r="H6" s="1">
-        <v>2100</v>
+        <v>3150</v>
       </c>
       <c r="I6" s="1">
-        <v>6300</v>
+        <v>4725</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>45</v>
+        <v>127</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>128</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>39</v>
+        <v>129</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>48</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B7" s="1">
-        <v>59336659559</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>21</v>
+        <v>57352885733</v>
       </c>
       <c r="D7" s="1">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="E7" s="1">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="G7" s="1">
         <v>0</v>
       </c>
+      <c r="H7" s="1">
+        <v>2100</v>
+      </c>
+      <c r="I7" s="1">
+        <v>2205</v>
+      </c>
       <c r="K7" s="1" t="s">
-        <v>45</v>
+        <v>127</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>41</v>
+        <v>128</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>39</v>
+        <v>129</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>48</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B8" s="1">
-        <v>70264353960</v>
+        <v>67879411283</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="D8" s="1">
         <v>0</v>
@@ -949,42 +1251,42 @@
         <v>0</v>
       </c>
       <c r="F8" s="1">
-        <v>0</v>
+        <v>12500</v>
       </c>
       <c r="G8" s="1">
         <v>0</v>
       </c>
       <c r="H8" s="1">
-        <v>44100</v>
+        <v>0</v>
       </c>
       <c r="I8" s="1">
-        <v>66150</v>
+        <v>0</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>46</v>
+        <v>127</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>41</v>
+        <v>128</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>39</v>
+        <v>129</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>48</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B9" s="1">
-        <v>70270095847</v>
+        <v>96268498572</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="D9" s="1">
         <v>0</v>
@@ -999,36 +1301,36 @@
         <v>0</v>
       </c>
       <c r="H9" s="1">
-        <v>40425</v>
+        <v>2100</v>
       </c>
       <c r="I9" s="1">
-        <v>60638</v>
+        <v>2625</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>42</v>
+        <v>127</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>41</v>
+        <v>128</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>39</v>
+        <v>129</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="O9" s="1" t="s">
-        <v>48</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
+      </c>
+      <c r="B10" s="1">
+        <v>95998892587</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="D10" s="1">
         <v>0</v>
@@ -1043,30 +1345,36 @@
         <v>0</v>
       </c>
       <c r="H10" s="1">
-        <v>25725</v>
+        <v>3032.4</v>
       </c>
       <c r="I10" s="1">
-        <v>38588</v>
+        <v>4082.4</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>42</v>
+        <v>127</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>128</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>39</v>
+        <v>129</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="O10" s="1" t="s">
-        <v>48</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B11" s="1">
-        <v>92807203975</v>
+        <v>84951946383</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="D11" s="1">
         <v>0</v>
@@ -1081,36 +1389,36 @@
         <v>0</v>
       </c>
       <c r="H11" s="1">
-        <v>19110</v>
+        <v>2100</v>
       </c>
       <c r="I11" s="1">
-        <v>28665</v>
+        <v>2100</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>42</v>
+        <v>127</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>41</v>
+        <v>128</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>39</v>
+        <v>129</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="O11" s="1" t="s">
-        <v>48</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B12" s="1">
-        <v>74280143720</v>
+        <v>70286388952</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="D12" s="1">
         <v>0</v>
@@ -1125,36 +1433,33 @@
         <v>0</v>
       </c>
       <c r="H12" s="1">
-        <v>14406</v>
+        <v>1050</v>
       </c>
       <c r="I12" s="1">
-        <v>21609</v>
+        <v>1575</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>42</v>
+        <v>127</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>41</v>
+        <v>128</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>39</v>
+        <v>129</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="O12" s="1" t="s">
-        <v>48</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B13" s="1">
-        <v>64994864412</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>17</v>
+        <v>61475798365</v>
       </c>
       <c r="D13" s="1">
         <v>0</v>
@@ -1169,33 +1474,36 @@
         <v>0</v>
       </c>
       <c r="H13" s="1">
-        <v>25725</v>
+        <v>1050</v>
       </c>
       <c r="I13" s="1">
-        <v>38588</v>
+        <v>3150</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>42</v>
+        <v>127</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>128</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>39</v>
+        <v>129</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="O13" s="1" t="s">
-        <v>48</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B14" s="1">
-        <v>63547309030</v>
+        <v>37</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="D14" s="1">
         <v>0</v>
@@ -1210,36 +1518,36 @@
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>25725</v>
+        <v>4200</v>
       </c>
       <c r="I14" s="1">
-        <v>38588</v>
+        <v>5250</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>42</v>
+        <v>127</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>43</v>
+        <v>130</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>39</v>
+        <v>129</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="O14" s="1" t="s">
-        <v>48</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B15" s="1">
-        <v>70270232537</v>
+        <v>73977012990</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D15" s="1">
         <v>0</v>
@@ -1254,33 +1562,36 @@
         <v>0</v>
       </c>
       <c r="H15" s="1">
-        <v>20580</v>
+        <v>2520</v>
       </c>
       <c r="I15" s="1">
-        <v>30870</v>
+        <v>3150</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>42</v>
+        <v>127</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>131</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>39</v>
+        <v>129</v>
       </c>
       <c r="N15" s="1" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="O15" s="1" t="s">
-        <v>48</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B16" s="1">
-        <v>70270136517</v>
+        <v>89927478297</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="D16" s="1">
         <v>0</v>
@@ -1295,33 +1606,36 @@
         <v>0</v>
       </c>
       <c r="H16" s="1">
-        <v>20580</v>
+        <v>1575</v>
       </c>
       <c r="I16" s="1">
-        <v>30870</v>
+        <v>2362.5</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>47</v>
+        <v>127</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>132</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>39</v>
+        <v>129</v>
       </c>
       <c r="N16" s="1" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="O16" s="1" t="s">
-        <v>48</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="B17" s="1">
-        <v>66176204910</v>
+        <v>95456109200</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="D17" s="1">
         <v>0</v>
@@ -1336,22 +1650,2025 @@
         <v>0</v>
       </c>
       <c r="H17" s="1">
-        <v>6027</v>
+        <v>1186.5</v>
       </c>
       <c r="I17" s="1">
-        <v>9041</v>
+        <v>1186.5</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>42</v>
+        <v>127</v>
+      </c>
+      <c r="L17" s="1" t="s">
+        <v>130</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>39</v>
+        <v>129</v>
       </c>
       <c r="N17" s="1" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="O17" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B18" s="1">
+        <v>85183552130</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D18" s="1">
+        <v>0</v>
+      </c>
+      <c r="E18" s="1">
+        <v>0</v>
+      </c>
+      <c r="F18" s="1">
+        <v>0</v>
+      </c>
+      <c r="G18" s="1">
+        <v>0</v>
+      </c>
+      <c r="H18" s="1">
+        <v>1575</v>
+      </c>
+      <c r="I18" s="1">
+        <v>2625</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="L18" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="M18" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="N18" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="O18" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B19" s="1">
+        <v>60306735961</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D19" s="1">
+        <v>0</v>
+      </c>
+      <c r="E19" s="1">
+        <v>0</v>
+      </c>
+      <c r="F19" s="1">
+        <v>5000</v>
+      </c>
+      <c r="G19" s="1">
+        <v>0</v>
+      </c>
+      <c r="H19" s="1">
+        <v>0</v>
+      </c>
+      <c r="I19" s="1">
+        <v>0</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="L19" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="M19" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="N19" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="O19" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
         <v>48</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D20" s="1">
+        <v>0</v>
+      </c>
+      <c r="E20" s="1">
+        <v>0</v>
+      </c>
+      <c r="F20" s="1">
+        <v>0</v>
+      </c>
+      <c r="G20" s="1">
+        <v>0</v>
+      </c>
+      <c r="H20" s="1">
+        <v>3150</v>
+      </c>
+      <c r="I20" s="1">
+        <v>3675</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="L20" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="M20" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="N20" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="O20" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D21" s="1">
+        <v>0</v>
+      </c>
+      <c r="E21" s="1">
+        <v>0</v>
+      </c>
+      <c r="F21" s="1">
+        <v>0</v>
+      </c>
+      <c r="G21" s="1">
+        <v>0</v>
+      </c>
+      <c r="H21" s="1">
+        <v>4725</v>
+      </c>
+      <c r="I21" s="1">
+        <v>5250</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="L21" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="M21" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="N21" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="O21" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D22" s="1">
+        <v>0</v>
+      </c>
+      <c r="E22" s="1">
+        <v>0</v>
+      </c>
+      <c r="F22" s="1">
+        <v>0</v>
+      </c>
+      <c r="G22" s="1">
+        <v>0</v>
+      </c>
+      <c r="H22" s="1">
+        <v>6993</v>
+      </c>
+      <c r="I22" s="1">
+        <v>9240</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="L22" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="M22" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="N22" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="O22" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D23" s="1">
+        <v>0</v>
+      </c>
+      <c r="E23" s="1">
+        <v>0</v>
+      </c>
+      <c r="F23" s="1">
+        <v>0</v>
+      </c>
+      <c r="G23" s="1">
+        <v>0</v>
+      </c>
+      <c r="H23" s="1">
+        <v>12600</v>
+      </c>
+      <c r="I23" s="1">
+        <v>15750</v>
+      </c>
+      <c r="K23" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="L23" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="M23" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="N23" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="O23" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B24" s="1">
+        <v>72427791298</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D24" s="1">
+        <v>0</v>
+      </c>
+      <c r="E24" s="1">
+        <v>0</v>
+      </c>
+      <c r="F24" s="1">
+        <v>0</v>
+      </c>
+      <c r="G24" s="1">
+        <v>0</v>
+      </c>
+      <c r="H24" s="1">
+        <v>10500</v>
+      </c>
+      <c r="I24" s="1">
+        <v>15750</v>
+      </c>
+      <c r="K24" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="L24" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="M24" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="N24" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="O24" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B25" s="1">
+        <v>97965906975</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D25" s="1">
+        <v>0</v>
+      </c>
+      <c r="E25" s="1">
+        <v>0</v>
+      </c>
+      <c r="F25" s="1">
+        <v>0</v>
+      </c>
+      <c r="G25" s="1">
+        <v>0</v>
+      </c>
+      <c r="H25" s="1">
+        <v>6300</v>
+      </c>
+      <c r="I25" s="1">
+        <v>9450</v>
+      </c>
+      <c r="K25" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="L25" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="M25" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="N25" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="O25" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B26" s="1">
+        <v>66787451360</v>
+      </c>
+      <c r="D26" s="1">
+        <v>0</v>
+      </c>
+      <c r="E26" s="1">
+        <v>0</v>
+      </c>
+      <c r="F26" s="1">
+        <v>0</v>
+      </c>
+      <c r="G26" s="1">
+        <v>0</v>
+      </c>
+      <c r="H26" s="1">
+        <v>21000</v>
+      </c>
+      <c r="I26" s="1">
+        <v>31500</v>
+      </c>
+      <c r="K26" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="L26" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="M26" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="N26" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="O26" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D27" s="1">
+        <v>0</v>
+      </c>
+      <c r="E27" s="1">
+        <v>0</v>
+      </c>
+      <c r="F27" s="1">
+        <v>0</v>
+      </c>
+      <c r="G27" s="1">
+        <v>0</v>
+      </c>
+      <c r="H27" s="1">
+        <v>4200</v>
+      </c>
+      <c r="I27" s="1">
+        <v>5250</v>
+      </c>
+      <c r="K27" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="L27" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="M27" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="N27" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="O27" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D28" s="1">
+        <v>0</v>
+      </c>
+      <c r="E28" s="1">
+        <v>0</v>
+      </c>
+      <c r="F28" s="1">
+        <v>0</v>
+      </c>
+      <c r="G28" s="1">
+        <v>0</v>
+      </c>
+      <c r="H28" s="1">
+        <v>8282.4</v>
+      </c>
+      <c r="I28" s="1">
+        <v>9332.4</v>
+      </c>
+      <c r="K28" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="L28" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="M28" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="N28" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="O28" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B29" s="1">
+        <v>51608676838</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D29" s="1">
+        <v>0</v>
+      </c>
+      <c r="E29" s="1">
+        <v>0</v>
+      </c>
+      <c r="F29" s="1">
+        <v>0</v>
+      </c>
+      <c r="G29" s="1">
+        <v>0</v>
+      </c>
+      <c r="H29" s="1">
+        <v>4935</v>
+      </c>
+      <c r="I29" s="1">
+        <v>7402.5</v>
+      </c>
+      <c r="K29" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="L29" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="M29" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="N29" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="O29" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B30" s="1">
+        <v>70930709592</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D30" s="1">
+        <v>0</v>
+      </c>
+      <c r="E30" s="1">
+        <v>0</v>
+      </c>
+      <c r="F30" s="1">
+        <v>0</v>
+      </c>
+      <c r="G30" s="1">
+        <v>0</v>
+      </c>
+      <c r="H30" s="1">
+        <v>5250</v>
+      </c>
+      <c r="I30" s="1">
+        <v>6825</v>
+      </c>
+      <c r="K30" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="L30" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="M30" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="N30" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="O30" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A31" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D31" s="1">
+        <v>0</v>
+      </c>
+      <c r="E31" s="1">
+        <v>0</v>
+      </c>
+      <c r="F31" s="1">
+        <v>0</v>
+      </c>
+      <c r="G31" s="1">
+        <v>0</v>
+      </c>
+      <c r="H31" s="1">
+        <v>3360</v>
+      </c>
+      <c r="I31" s="1">
+        <v>4200</v>
+      </c>
+      <c r="K31" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="L31" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="M31" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="N31" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="O31" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D32" s="1">
+        <v>0</v>
+      </c>
+      <c r="E32" s="1">
+        <v>0</v>
+      </c>
+      <c r="F32" s="1">
+        <v>0</v>
+      </c>
+      <c r="G32" s="1">
+        <v>0</v>
+      </c>
+      <c r="H32" s="1">
+        <v>7113.75</v>
+      </c>
+      <c r="I32" s="1">
+        <v>8925</v>
+      </c>
+      <c r="K32" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="L32" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="M32" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="N32" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="O32" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A33" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B33" s="1">
+        <v>76575166409</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D33" s="1">
+        <v>0</v>
+      </c>
+      <c r="E33" s="1">
+        <v>0</v>
+      </c>
+      <c r="F33" s="1">
+        <v>0</v>
+      </c>
+      <c r="G33" s="1">
+        <v>0</v>
+      </c>
+      <c r="H33" s="1">
+        <v>6720</v>
+      </c>
+      <c r="I33" s="1">
+        <v>8400</v>
+      </c>
+      <c r="K33" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="L33" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="M33" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="N33" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="O33" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A34" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D34" s="1">
+        <v>0</v>
+      </c>
+      <c r="E34" s="1">
+        <v>0</v>
+      </c>
+      <c r="F34" s="1">
+        <v>0</v>
+      </c>
+      <c r="G34" s="1">
+        <v>0</v>
+      </c>
+      <c r="H34" s="1">
+        <v>1344</v>
+      </c>
+      <c r="I34" s="1">
+        <v>1680</v>
+      </c>
+      <c r="K34" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="L34" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="M34" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="N34" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="O34" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A35" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B35" s="1">
+        <v>96427389521</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D35" s="1">
+        <v>0</v>
+      </c>
+      <c r="E35" s="1">
+        <v>0</v>
+      </c>
+      <c r="F35" s="1">
+        <v>0</v>
+      </c>
+      <c r="G35" s="1">
+        <v>0</v>
+      </c>
+      <c r="H35" s="1">
+        <v>6090</v>
+      </c>
+      <c r="I35" s="1">
+        <v>9240</v>
+      </c>
+      <c r="K35" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="L35" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="M35" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="N35" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="O35" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A36" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D36" s="1">
+        <v>0</v>
+      </c>
+      <c r="E36" s="1">
+        <v>0</v>
+      </c>
+      <c r="F36" s="1">
+        <v>0</v>
+      </c>
+      <c r="G36" s="1">
+        <v>0</v>
+      </c>
+      <c r="H36" s="1">
+        <v>15120</v>
+      </c>
+      <c r="I36" s="1">
+        <v>18900</v>
+      </c>
+      <c r="K36" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="L36" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="M36" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="N36" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="O36" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A37" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B37" s="1">
+        <v>94395507225</v>
+      </c>
+      <c r="D37" s="1">
+        <v>0</v>
+      </c>
+      <c r="E37" s="1">
+        <v>0</v>
+      </c>
+      <c r="F37" s="1">
+        <v>0</v>
+      </c>
+      <c r="G37" s="1">
+        <v>0</v>
+      </c>
+      <c r="H37" s="1">
+        <v>1260</v>
+      </c>
+      <c r="I37" s="1">
+        <v>1575</v>
+      </c>
+      <c r="K37" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="L37" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="M37" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="N37" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="O37" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A38" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B38" s="1">
+        <v>63279234777</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D38" s="1">
+        <v>0</v>
+      </c>
+      <c r="E38" s="1">
+        <v>0</v>
+      </c>
+      <c r="F38" s="1">
+        <v>6000</v>
+      </c>
+      <c r="G38" s="1">
+        <v>0</v>
+      </c>
+      <c r="H38" s="1">
+        <v>0</v>
+      </c>
+      <c r="I38" s="1">
+        <v>0</v>
+      </c>
+      <c r="K38" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="L38" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="M38" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="N38" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="O38" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B39" s="1">
+        <v>96626260692</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D39" s="1">
+        <v>0</v>
+      </c>
+      <c r="E39" s="1">
+        <v>0</v>
+      </c>
+      <c r="F39" s="1">
+        <v>0</v>
+      </c>
+      <c r="G39" s="1">
+        <v>0</v>
+      </c>
+      <c r="H39" s="1">
+        <v>1575</v>
+      </c>
+      <c r="I39" s="1">
+        <v>2100</v>
+      </c>
+      <c r="K39" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="L39" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="M39" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="N39" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="O39" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A40" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D40" s="1">
+        <v>0</v>
+      </c>
+      <c r="E40" s="1">
+        <v>0</v>
+      </c>
+      <c r="F40" s="1">
+        <v>0</v>
+      </c>
+      <c r="G40" s="1">
+        <v>0</v>
+      </c>
+      <c r="H40" s="1">
+        <v>3150</v>
+      </c>
+      <c r="I40" s="1">
+        <v>3780</v>
+      </c>
+      <c r="K40" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="L40" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="M40" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="N40" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="O40" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A41" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D41" s="1">
+        <v>0</v>
+      </c>
+      <c r="E41" s="1">
+        <v>0</v>
+      </c>
+      <c r="F41" s="1">
+        <v>0</v>
+      </c>
+      <c r="G41" s="1">
+        <v>0</v>
+      </c>
+      <c r="H41" s="1">
+        <v>5250</v>
+      </c>
+      <c r="I41" s="1">
+        <v>6300</v>
+      </c>
+      <c r="K41" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="L41" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="M41" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="N41" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="O41" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A42" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B42" s="1">
+        <v>59171148224</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D42" s="1">
+        <v>0</v>
+      </c>
+      <c r="E42" s="1">
+        <v>0</v>
+      </c>
+      <c r="F42" s="1">
+        <v>0</v>
+      </c>
+      <c r="G42" s="1">
+        <v>0</v>
+      </c>
+      <c r="H42" s="1">
+        <v>1067.8499999999999</v>
+      </c>
+      <c r="I42" s="1">
+        <v>1312.5</v>
+      </c>
+      <c r="K42" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="L42" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="M42" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="N42" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="O42" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A43" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D43" s="1">
+        <v>0</v>
+      </c>
+      <c r="E43" s="1">
+        <v>0</v>
+      </c>
+      <c r="F43" s="1">
+        <v>0</v>
+      </c>
+      <c r="G43" s="1">
+        <v>0</v>
+      </c>
+      <c r="H43" s="1">
+        <v>1050</v>
+      </c>
+      <c r="I43" s="1">
+        <v>1312.5</v>
+      </c>
+      <c r="K43" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="L43" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="M43" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="N43" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="O43" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A44" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B44" s="1">
+        <v>61686347622</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D44" s="1">
+        <v>0</v>
+      </c>
+      <c r="E44" s="1">
+        <v>0</v>
+      </c>
+      <c r="F44" s="1">
+        <v>0</v>
+      </c>
+      <c r="G44" s="1">
+        <v>0</v>
+      </c>
+      <c r="H44" s="1">
+        <v>2250.15</v>
+      </c>
+      <c r="I44" s="1">
+        <v>2250.15</v>
+      </c>
+      <c r="K44" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="L44" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="M44" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="N44" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="O44" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A45" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B45" s="1">
+        <v>83789014540</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D45" s="1">
+        <v>0</v>
+      </c>
+      <c r="E45" s="1">
+        <v>0</v>
+      </c>
+      <c r="F45" s="1">
+        <v>0</v>
+      </c>
+      <c r="G45" s="1">
+        <v>0</v>
+      </c>
+      <c r="H45" s="1">
+        <v>3360</v>
+      </c>
+      <c r="I45" s="1">
+        <v>4200</v>
+      </c>
+      <c r="K45" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="L45" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="M45" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="N45" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="O45" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A46" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D46" s="1">
+        <v>0</v>
+      </c>
+      <c r="E46" s="1">
+        <v>0</v>
+      </c>
+      <c r="F46" s="1">
+        <v>0</v>
+      </c>
+      <c r="G46" s="1">
+        <v>0</v>
+      </c>
+      <c r="H46" s="1">
+        <v>4200</v>
+      </c>
+      <c r="I46" s="1">
+        <v>5250</v>
+      </c>
+      <c r="K46" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="L46" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="M46" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="N46" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="O46" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A47" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D47" s="1">
+        <v>0</v>
+      </c>
+      <c r="E47" s="1">
+        <v>0</v>
+      </c>
+      <c r="F47" s="1">
+        <v>0</v>
+      </c>
+      <c r="G47" s="1">
+        <v>0</v>
+      </c>
+      <c r="H47" s="1">
+        <v>1050</v>
+      </c>
+      <c r="I47" s="1">
+        <v>1312.5</v>
+      </c>
+      <c r="K47" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="L47" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="M47" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="N47" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="O47" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A48" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B48" s="1">
+        <v>55155992455</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D48" s="1">
+        <v>0</v>
+      </c>
+      <c r="E48" s="1">
+        <v>0</v>
+      </c>
+      <c r="F48" s="1">
+        <v>0</v>
+      </c>
+      <c r="G48" s="1">
+        <v>0</v>
+      </c>
+      <c r="H48" s="1">
+        <v>2100</v>
+      </c>
+      <c r="I48" s="1">
+        <v>3675</v>
+      </c>
+      <c r="K48" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="L48" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="M48" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="N48" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="O48" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A49" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B49" s="1">
+        <v>15766520078</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D49" s="1">
+        <v>0</v>
+      </c>
+      <c r="E49" s="1">
+        <v>0</v>
+      </c>
+      <c r="F49" s="1">
+        <v>0</v>
+      </c>
+      <c r="G49" s="1">
+        <v>0</v>
+      </c>
+      <c r="H49" s="1">
+        <v>6720</v>
+      </c>
+      <c r="I49" s="1">
+        <v>8400</v>
+      </c>
+      <c r="K49" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="L49" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="M49" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="N49" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="O49" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A50" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B50" s="1">
+        <v>63656117866</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D50" s="1">
+        <v>0</v>
+      </c>
+      <c r="E50" s="1">
+        <v>0</v>
+      </c>
+      <c r="F50" s="1">
+        <v>0</v>
+      </c>
+      <c r="G50" s="1">
+        <v>0</v>
+      </c>
+      <c r="H50" s="1">
+        <v>1050</v>
+      </c>
+      <c r="I50" s="1">
+        <v>1312.5</v>
+      </c>
+      <c r="K50" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="L50" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="M50" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="N50" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="O50" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A51" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B51" s="1">
+        <v>93953541629</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D51" s="1">
+        <v>0</v>
+      </c>
+      <c r="E51" s="1">
+        <v>0</v>
+      </c>
+      <c r="F51" s="1">
+        <v>0</v>
+      </c>
+      <c r="G51" s="1">
+        <v>0</v>
+      </c>
+      <c r="H51" s="1">
+        <v>7350</v>
+      </c>
+      <c r="I51" s="1">
+        <v>11025</v>
+      </c>
+      <c r="K51" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="L51" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="M51" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="N51" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="O51" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A52" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B52" s="1">
+        <v>67478386733</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D52" s="1">
+        <v>0</v>
+      </c>
+      <c r="E52" s="1">
+        <v>0</v>
+      </c>
+      <c r="F52" s="1">
+        <v>0</v>
+      </c>
+      <c r="G52" s="1">
+        <v>0</v>
+      </c>
+      <c r="H52" s="1">
+        <v>2835</v>
+      </c>
+      <c r="I52" s="1">
+        <v>4725</v>
+      </c>
+      <c r="K52" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="L52" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="M52" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="N52" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="O52" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A53" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D53" s="1">
+        <v>0</v>
+      </c>
+      <c r="E53" s="1">
+        <v>0</v>
+      </c>
+      <c r="F53" s="1">
+        <v>0</v>
+      </c>
+      <c r="G53" s="1">
+        <v>0</v>
+      </c>
+      <c r="H53" s="1">
+        <v>1050</v>
+      </c>
+      <c r="I53" s="1">
+        <v>1575</v>
+      </c>
+      <c r="K53" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="L53" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="M53" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="N53" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="O53" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A54" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B54" s="1">
+        <v>98410491494</v>
+      </c>
+      <c r="D54" s="1">
+        <v>0</v>
+      </c>
+      <c r="E54" s="1">
+        <v>0</v>
+      </c>
+      <c r="F54" s="1">
+        <v>0</v>
+      </c>
+      <c r="G54" s="1">
+        <v>0</v>
+      </c>
+      <c r="H54" s="1">
+        <v>1365</v>
+      </c>
+      <c r="I54" s="1">
+        <v>2835</v>
+      </c>
+      <c r="K54" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="L54" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="M54" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="N54" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="O54" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A55" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B55" s="1">
+        <v>72760244108</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D55" s="1">
+        <v>0</v>
+      </c>
+      <c r="E55" s="1">
+        <v>0</v>
+      </c>
+      <c r="F55" s="1">
+        <v>0</v>
+      </c>
+      <c r="G55" s="1">
+        <v>0</v>
+      </c>
+      <c r="H55" s="1">
+        <v>2100</v>
+      </c>
+      <c r="I55" s="1">
+        <v>2205</v>
+      </c>
+      <c r="K55" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="L55" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="M55" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="N55" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="O55" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A56" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D56" s="1">
+        <v>0</v>
+      </c>
+      <c r="E56" s="1">
+        <v>0</v>
+      </c>
+      <c r="F56" s="1">
+        <v>0</v>
+      </c>
+      <c r="G56" s="1">
+        <v>0</v>
+      </c>
+      <c r="H56" s="1">
+        <v>1680</v>
+      </c>
+      <c r="I56" s="1">
+        <v>2100</v>
+      </c>
+      <c r="K56" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="L56" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="M56" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="N56" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="O56" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A57" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B57" s="1">
+        <v>95979419757</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D57" s="1">
+        <v>0</v>
+      </c>
+      <c r="E57" s="1">
+        <v>0</v>
+      </c>
+      <c r="F57" s="1">
+        <v>0</v>
+      </c>
+      <c r="G57" s="1">
+        <v>0</v>
+      </c>
+      <c r="H57" s="1">
+        <v>12600</v>
+      </c>
+      <c r="I57" s="1">
+        <v>18900</v>
+      </c>
+      <c r="K57" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="L57" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="M57" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="N57" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="O57" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A58" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D58" s="1">
+        <v>0</v>
+      </c>
+      <c r="E58" s="1">
+        <v>0</v>
+      </c>
+      <c r="F58" s="1">
+        <v>0</v>
+      </c>
+      <c r="G58" s="1">
+        <v>0</v>
+      </c>
+      <c r="H58" s="1">
+        <v>12600</v>
+      </c>
+      <c r="I58" s="1">
+        <v>15750</v>
+      </c>
+      <c r="K58" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="L58" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="M58" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="N58" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="O58" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A59" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D59" s="1">
+        <v>0</v>
+      </c>
+      <c r="E59" s="1">
+        <v>0</v>
+      </c>
+      <c r="F59" s="1">
+        <v>0</v>
+      </c>
+      <c r="G59" s="1">
+        <v>0</v>
+      </c>
+      <c r="H59" s="1">
+        <v>1260</v>
+      </c>
+      <c r="I59" s="1">
+        <v>1575</v>
+      </c>
+      <c r="K59" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="L59" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="M59" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="N59" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="O59" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A60" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B60" s="1">
+        <v>60607495044</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D60" s="1">
+        <v>0</v>
+      </c>
+      <c r="E60" s="1">
+        <v>0</v>
+      </c>
+      <c r="F60" s="1">
+        <v>0</v>
+      </c>
+      <c r="G60" s="1">
+        <v>0</v>
+      </c>
+      <c r="H60" s="1">
+        <v>2100</v>
+      </c>
+      <c r="I60" s="1">
+        <v>2100</v>
+      </c>
+      <c r="K60" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="L60" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="M60" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="N60" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="O60" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A61" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B61" s="1">
+        <v>79312139402</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D61" s="1">
+        <v>0</v>
+      </c>
+      <c r="E61" s="1">
+        <v>0</v>
+      </c>
+      <c r="F61" s="1">
+        <v>0</v>
+      </c>
+      <c r="G61" s="1">
+        <v>0</v>
+      </c>
+      <c r="H61" s="1">
+        <v>5250</v>
+      </c>
+      <c r="I61" s="1">
+        <v>5250</v>
+      </c>
+      <c r="K61" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="L61" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="M61" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="N61" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="O61" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A62" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B62" s="1">
+        <v>82706469913</v>
+      </c>
+      <c r="D62" s="1">
+        <v>0</v>
+      </c>
+      <c r="E62" s="1">
+        <v>0</v>
+      </c>
+      <c r="F62" s="1">
+        <v>4200</v>
+      </c>
+      <c r="G62" s="1">
+        <v>0</v>
+      </c>
+      <c r="H62" s="1">
+        <v>0</v>
+      </c>
+      <c r="I62" s="1">
+        <v>0</v>
+      </c>
+      <c r="K62" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="L62" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="M62" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="N62" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="O62" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A63" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B63" s="1">
+        <v>94936858828</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="D63" s="1">
+        <v>0</v>
+      </c>
+      <c r="E63" s="1">
+        <v>0</v>
+      </c>
+      <c r="F63" s="1">
+        <v>0</v>
+      </c>
+      <c r="G63" s="1">
+        <v>0</v>
+      </c>
+      <c r="H63" s="1">
+        <v>4725</v>
+      </c>
+      <c r="I63" s="1">
+        <v>5250</v>
+      </c>
+      <c r="K63" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="L63" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="M63" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="N63" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="O63" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
